--- a/medicine/Sexualité et sexologie/Picasso_Trigger/Picasso_Trigger.xlsx
+++ b/medicine/Sexualité et sexologie/Picasso_Trigger/Picasso_Trigger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Picasso Trigger est un film d'action érotique américain sorti en 1988, réalisé par Andy Sidaris. C'est le troisième dans la saga des Triple B.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'agent qui suit Picasso Trigger est assassiné à Paris par Miguel Ortiz, un criminel qui joue double-jeu. Ortiz commence ensuite à éliminer les agents impliqués dans la mort de son frère. Pour l'arrêter, se dresse l'agent Travis Abilene.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Picasso Trigger
 Genre : thriller érotique, action, espionnage
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Steve Bond : Travis Abilene
 Dona Speir : Donna
@@ -622,9 +640,11 @@
           <t>Critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film mélange sexe, action et gadgets[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film mélange sexe, action et gadgets.
 </t>
         </is>
       </c>
